--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2262276.246687049</v>
+        <v>2257072.913226732</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847142</v>
+        <v>2310564.143223171</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791238</v>
+        <v>419463.0933791232</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8442711.590854725</v>
+        <v>8440941.652683467</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>69.41325765719749</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>265.3563842757014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>128.7880777047345</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>21.24059023833436</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>102.4290392774763</v>
       </c>
       <c r="T3" t="n">
         <v>175.2139736830806</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>72.55567497641739</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>293.910080901816</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>86.30794794574838</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348899444</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>97.69872321707417</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>39.71534783581649</v>
       </c>
       <c r="U7" t="n">
-        <v>32.70115199265624</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94.84303638098511</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>91.37649775417424</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>34.10250295830922</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>9.936707027008605</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D11" t="n">
-        <v>164.5918143518066</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>43.01721371098688</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414335</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404351</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6944667292003</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007259</v>
+        <v>89.36466403007184</v>
       </c>
       <c r="C13" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035424</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219397</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507225</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484035</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723248</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380453</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497646</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943237</v>
       </c>
       <c r="S13" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T13" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U13" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1610,10 +1610,10 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>87.52601544627217</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404347</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>86.40882216238293</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T16" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U16" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049596</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003576</v>
+        <v>280.4599644277188</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281734</v>
+        <v>273.2139126555345</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415736</v>
+        <v>265.5568836689348</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806956</v>
+        <v>282.5278558080568</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313967</v>
+        <v>296.6956602587578</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029515</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752489</v>
+        <v>204.8123861026101</v>
       </c>
       <c r="I32" t="n">
-        <v>27.3673743845345</v>
+        <v>20.92391191189566</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443462</v>
+        <v>48.81858568179578</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622522</v>
+        <v>105.2357625896133</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158221</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495915</v>
+        <v>222.6559073769526</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274701</v>
+        <v>251.2592108548313</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623484</v>
+        <v>269.5282451897095</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346796</v>
+        <v>276.4959681620408</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046295</v>
+        <v>67.32610467782411</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074535</v>
+        <v>52.47323292810651</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258508</v>
+        <v>38.04694813994624</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546419</v>
+        <v>37.97339019282535</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523146</v>
+        <v>39.72284161259262</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762359</v>
+        <v>50.54167953498475</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419564</v>
+        <v>37.8939317015568</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536757</v>
+        <v>15.73364728272873</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982349</v>
+        <v>6.632145647184643</v>
       </c>
       <c r="S34" t="n">
-        <v>91.2015516253508</v>
+        <v>84.75808915271196</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595229</v>
+        <v>117.332027486884</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865928</v>
+        <v>166.5545700139539</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734587</v>
+        <v>147.2897179008199</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942088</v>
+        <v>164.46726422157</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409214</v>
+        <v>115.7096851682826</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175978</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840508</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118668</v>
+        <v>292.7769070118666</v>
       </c>
       <c r="D41" t="n">
-        <v>285.119878025267</v>
+        <v>285.1198780252668</v>
       </c>
       <c r="E41" t="n">
-        <v>302.090850164389</v>
+        <v>106.2581909707491</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150901</v>
+        <v>316.2586546150899</v>
       </c>
       <c r="G41" t="n">
-        <v>312.564288486645</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>224.3753804589421</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822791</v>
+        <v>40.4869062682277</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812804</v>
+        <v>68.38158003812782</v>
       </c>
       <c r="T41" t="n">
-        <v>82.99609145788546</v>
+        <v>124.7987569459454</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>156.7283627995153</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>242.2189017332847</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111635</v>
+        <v>270.8222052111633</v>
       </c>
       <c r="X41" t="n">
-        <v>289.0912395460418</v>
+        <v>289.0912395460416</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.058962518373</v>
+        <v>296.0589625183728</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415636</v>
+        <v>86.88909903415615</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443877</v>
+        <v>72.03622728443855</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627849</v>
+        <v>57.60994249627828</v>
       </c>
       <c r="E43" t="n">
-        <v>57.5363845491576</v>
+        <v>57.53638454915739</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892487</v>
+        <v>59.28583596892466</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131701</v>
+        <v>70.10467389131679</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788905</v>
+        <v>57.45692605788884</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906098</v>
+        <v>35.29664163906077</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.1951400035169</v>
+        <v>26.19514000351668</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090442</v>
+        <v>104.321083509044</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432163</v>
+        <v>136.8950218432161</v>
       </c>
       <c r="U43" t="n">
-        <v>186.1175643702862</v>
+        <v>186.1175643702859</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571521</v>
+        <v>166.8527122571519</v>
       </c>
       <c r="W43" t="n">
-        <v>184.0302585779023</v>
+        <v>184.030258577902</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246146</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012912</v>
+        <v>124.414101101291</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.022958784051</v>
+        <v>300.0229587840507</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118668</v>
+        <v>292.7769070118666</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>109.9667971102803</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>302.0908501643887</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150901</v>
+        <v>316.2586546150899</v>
       </c>
       <c r="G44" t="n">
-        <v>312.564288486645</v>
+        <v>312.5642884866447</v>
       </c>
       <c r="H44" t="n">
-        <v>174.7976457425599</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.4869062682279</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812802</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459456</v>
+        <v>124.7987569459453</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995152</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332849</v>
+        <v>242.2189017332846</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111635</v>
+        <v>270.8222052111632</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460418</v>
+        <v>289.0912395460416</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183729</v>
+        <v>296.0589625183727</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415635</v>
+        <v>86.88909903415612</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443875</v>
+        <v>72.03622728443852</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627848</v>
+        <v>57.60994249627825</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915759</v>
+        <v>57.53638454915736</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892486</v>
+        <v>59.28583596892463</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131699</v>
+        <v>70.10467389131676</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788904</v>
+        <v>57.45692605788881</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906097</v>
+        <v>35.29664163906074</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351688</v>
+        <v>26.19514000351666</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090442</v>
+        <v>104.321083509044</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432163</v>
+        <v>136.8950218432161</v>
       </c>
       <c r="U46" t="n">
-        <v>186.1175643702861</v>
+        <v>186.1175643702859</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571521</v>
+        <v>166.8527122571519</v>
       </c>
       <c r="W46" t="n">
-        <v>184.0302585779022</v>
+        <v>184.030258577902</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246148</v>
+        <v>135.2726795246146</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012909</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>872.5479325190578</v>
+        <v>999.0496848552187</v>
       </c>
       <c r="C2" t="n">
-        <v>872.5479325190578</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="D2" t="n">
-        <v>872.5479325190578</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="E2" t="n">
-        <v>872.5479325190578</v>
+        <v>928.9352831812819</v>
       </c>
       <c r="F2" t="n">
-        <v>455.6534940490355</v>
+        <v>916.0812487516637</v>
       </c>
       <c r="G2" t="n">
-        <v>42.49073853703869</v>
+        <v>502.9184932396668</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703869</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703869</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1405114458668</v>
+        <v>138.4138119172013</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733286</v>
+        <v>497.3961679446631</v>
       </c>
       <c r="L2" t="n">
-        <v>1039.443159191857</v>
+        <v>990.7164596631919</v>
       </c>
       <c r="M2" t="n">
-        <v>1565.266048587711</v>
+        <v>990.7164596631919</v>
       </c>
       <c r="N2" t="n">
-        <v>1939.691366710986</v>
+        <v>1491.883242658642</v>
       </c>
       <c r="O2" t="n">
-        <v>1939.691366710986</v>
+        <v>1491.883242658642</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710986</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851935</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R2" t="n">
-        <v>2124.536926851935</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.536926851935</v>
+        <v>1820.409826157685</v>
       </c>
       <c r="T2" t="n">
-        <v>1901.036324411351</v>
+        <v>1596.909223717102</v>
       </c>
       <c r="U2" t="n">
-        <v>1901.036324411351</v>
+        <v>1341.1564941517</v>
       </c>
       <c r="V2" t="n">
-        <v>1901.036324411351</v>
+        <v>999.0496848552187</v>
       </c>
       <c r="W2" t="n">
-        <v>1530.037289379639</v>
+        <v>999.0496848552187</v>
       </c>
       <c r="X2" t="n">
-        <v>1140.584684312696</v>
+        <v>999.0496848552187</v>
       </c>
       <c r="Y2" t="n">
-        <v>872.5479325190578</v>
+        <v>999.0496848552187</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.5673750163298</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="C3" t="n">
-        <v>454.913144576422</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="D3" t="n">
-        <v>324.8241771979024</v>
+        <v>559.1211112202258</v>
       </c>
       <c r="E3" t="n">
-        <v>188.3776863087901</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F3" t="n">
-        <v>63.94588019192189</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G3" t="n">
-        <v>42.49073853703869</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H3" t="n">
-        <v>42.49073853703869</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703869</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567661</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189925</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="L3" t="n">
-        <v>475.3448668189925</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="M3" t="n">
-        <v>968.0301839896657</v>
+        <v>1138.346177012113</v>
       </c>
       <c r="N3" t="n">
-        <v>968.0301839896657</v>
+        <v>1639.512960007564</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580647</v>
+        <v>1639.512960007564</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297044</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851935</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883749999</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649868</v>
+        <v>1897.535575791322</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848776</v>
+        <v>1720.551763990231</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527418</v>
+        <v>1510.488620668872</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.102249898485</v>
+        <v>1287.94861903994</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.985004031772</v>
+        <v>1057.831373173226</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817839</v>
+        <v>868.5242955232382</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094572912</v>
+        <v>689.2100785987454</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>842.5807859407439</v>
+        <v>113.7868864808621</v>
       </c>
       <c r="C4" t="n">
-        <v>842.5807859407439</v>
+        <v>113.7868864808621</v>
       </c>
       <c r="D4" t="n">
-        <v>842.5807859407439</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="E4" t="n">
-        <v>687.0219737999464</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="F4" t="n">
-        <v>529.6960390129194</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="G4" t="n">
-        <v>361.4419851123649</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H4" t="n">
-        <v>205.9634340738589</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I4" t="n">
-        <v>72.86900871093675</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703869</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590444</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902535</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319615</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085401</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785911</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785911</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>842.5807859407439</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>842.5807859407439</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>842.5807859407439</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="V4" t="n">
-        <v>842.5807859407439</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="W4" t="n">
-        <v>842.5807859407439</v>
+        <v>298.9949051721633</v>
       </c>
       <c r="X4" t="n">
-        <v>842.5807859407439</v>
+        <v>298.9949051721633</v>
       </c>
       <c r="Y4" t="n">
-        <v>842.5807859407439</v>
+        <v>298.9949051721633</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1334.589576073595</v>
+        <v>359.3535813976271</v>
       </c>
       <c r="C5" t="n">
-        <v>1334.589576073595</v>
+        <v>62.47471179983321</v>
       </c>
       <c r="D5" t="n">
-        <v>949.1484472902623</v>
+        <v>62.47471179983321</v>
       </c>
       <c r="E5" t="n">
-        <v>546.5649224068068</v>
+        <v>62.47471179983321</v>
       </c>
       <c r="F5" t="n">
-        <v>129.6704839367845</v>
+        <v>49.62067737021503</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703869</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703869</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703869</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1405114458668</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733286</v>
+        <v>399.4806819260841</v>
       </c>
       <c r="L5" t="n">
-        <v>1039.443159191857</v>
+        <v>892.8009736446129</v>
       </c>
       <c r="M5" t="n">
-        <v>1039.443159191857</v>
+        <v>892.8009736446129</v>
       </c>
       <c r="N5" t="n">
-        <v>1499.651765818658</v>
+        <v>1393.967756640063</v>
       </c>
       <c r="O5" t="n">
-        <v>1939.691366710986</v>
+        <v>1834.007357532392</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710986</v>
+        <v>1840.070734790164</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851935</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851935</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="S5" t="n">
-        <v>2124.536926851935</v>
+        <v>1858.402739872163</v>
       </c>
       <c r="T5" t="n">
-        <v>2124.536926851935</v>
+        <v>1858.402739872163</v>
       </c>
       <c r="U5" t="n">
-        <v>2124.536926851935</v>
+        <v>1858.402739872163</v>
       </c>
       <c r="V5" t="n">
-        <v>2124.536926851935</v>
+        <v>1516.295930575682</v>
       </c>
       <c r="W5" t="n">
-        <v>2124.536926851935</v>
+        <v>1145.296895543969</v>
       </c>
       <c r="X5" t="n">
-        <v>1735.084321784992</v>
+        <v>755.844290477026</v>
       </c>
       <c r="Y5" t="n">
-        <v>1735.084321784992</v>
+        <v>359.3535813976271</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770696</v>
+        <v>839.8643090386532</v>
       </c>
       <c r="C6" t="n">
-        <v>691.2024912371618</v>
+        <v>689.2100785987454</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586421</v>
+        <v>559.1211112202258</v>
       </c>
       <c r="E6" t="n">
-        <v>424.6670329695299</v>
+        <v>422.6746203311135</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526617</v>
+        <v>298.2428142142453</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245262</v>
+        <v>178.1829962861098</v>
       </c>
       <c r="H6" t="n">
-        <v>91.8779925251271</v>
+        <v>89.88557988671067</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703869</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703869</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K6" t="n">
-        <v>362.2298845992651</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="L6" t="n">
-        <v>845.7959704975783</v>
+        <v>360.2374719608487</v>
       </c>
       <c r="M6" t="n">
-        <v>1371.618859893432</v>
+        <v>861.404254956299</v>
       </c>
       <c r="N6" t="n">
-        <v>1608.016644260954</v>
+        <v>1118.128143219265</v>
       </c>
       <c r="O6" t="n">
-        <v>2124.536926851935</v>
+        <v>1619.294926214715</v>
       </c>
       <c r="P6" t="n">
-        <v>2124.536926851935</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851935</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851935</v>
+        <v>2000.999251829177</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.536926851935</v>
+        <v>1866.068574729046</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927954</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1360.281938054096</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1170.974860404107</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180309</v>
+        <v>991.6606434796146</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.5965471713441</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="C7" t="n">
-        <v>361.5965471713441</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="D7" t="n">
-        <v>205.9634340738589</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="E7" t="n">
-        <v>205.9634340738589</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="F7" t="n">
-        <v>205.9634340738589</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="G7" t="n">
-        <v>205.9634340738589</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="H7" t="n">
-        <v>205.9634340738589</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="I7" t="n">
-        <v>72.86900871093675</v>
+        <v>70.8765960725203</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703869</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207804</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590444</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902535</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319615</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085401</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785911</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785911</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785911</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785911</v>
+        <v>777.9278461072804</v>
       </c>
       <c r="U7" t="n">
-        <v>910.9062944193423</v>
+        <v>492.4890543491813</v>
       </c>
       <c r="V7" t="n">
-        <v>644.9269492401666</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="W7" t="n">
-        <v>361.5965471713441</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="X7" t="n">
-        <v>361.5965471713441</v>
+        <v>226.5097091700056</v>
       </c>
       <c r="Y7" t="n">
-        <v>361.5965471713441</v>
+        <v>226.5097091700056</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>866.505261540228</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="C8" t="n">
-        <v>473.3297600431586</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="D8" t="n">
-        <v>473.3297600431586</v>
+        <v>702.5094904747293</v>
       </c>
       <c r="E8" t="n">
-        <v>473.3297600431586</v>
+        <v>299.9259655912738</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>287.0719311616556</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>277.9495796900629</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,22 +4805,22 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>685.2830347289006</v>
+        <v>758.8032691226673</v>
       </c>
       <c r="M8" t="n">
-        <v>1231.283934773481</v>
+        <v>1304.804169167248</v>
       </c>
       <c r="N8" t="n">
-        <v>1759.095218410943</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="O8" t="n">
-        <v>2199.134819303272</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2071.902861797301</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>1729.796052500819</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W8" t="n">
-        <v>1358.797017469107</v>
+        <v>1477.403224325005</v>
       </c>
       <c r="X8" t="n">
-        <v>1358.797017469107</v>
+        <v>1087.950619258062</v>
       </c>
       <c r="Y8" t="n">
-        <v>962.306308389708</v>
+        <v>1087.950619258062</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>554.6660347926879</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
-        <v>2134.729194295015</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2134.729194295015</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.402834963379</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="C10" t="n">
-        <v>360.1977170293682</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D10" t="n">
-        <v>360.1977170293682</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>204.6389048885707</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="X10" t="n">
-        <v>938.7229148380369</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.6108536546802</v>
+        <v>237.3930558841897</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1448.730965405811</v>
+        <v>1320.171044252415</v>
       </c>
       <c r="C11" t="n">
-        <v>1448.730965405811</v>
+        <v>1021.936224042534</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>731.4357765463903</v>
       </c>
       <c r="E11" t="n">
-        <v>974.833763878426</v>
+        <v>423.792932950123</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955921</v>
+        <v>380.3412019289241</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707836</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244625</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2873.571463155802</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V11" t="n">
-        <v>2626.405335146509</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W11" t="n">
-        <v>2350.346981401985</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2055.83505762223</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>1754.28502983002</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>318.9689542635005</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669550995</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082771</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979809</v>
+        <v>357.1274984979801</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311671</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5200,49 +5200,49 @@
         <v>125.3967468362513</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757667</v>
+        <v>300.2831496757661</v>
       </c>
       <c r="L13" t="n">
-        <v>557.46215127914</v>
+        <v>557.4621512791391</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469774</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484818</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R13" t="n">
-        <v>1649.242993404583</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.367590874321</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T13" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852108</v>
+        <v>850.6627251852094</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553821</v>
+        <v>711.5230842553808</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592136</v>
+        <v>583.3517043592125</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1827.815439560371</v>
+        <v>1625.725108676624</v>
       </c>
       <c r="C14" t="n">
-        <v>1529.58061935049</v>
+        <v>1327.490288466742</v>
       </c>
       <c r="D14" t="n">
         <v>1239.080171854346</v>
@@ -5306,22 +5306,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2947.101872886154</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V14" t="n">
-        <v>2699.935744876861</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2423.877391132336</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2129.365467352582</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>1827.815439560371</v>
+        <v>1625.725108676624</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N15" t="n">
-        <v>1740.468202408463</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1831.098449623696</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2236.719818340093</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551</v>
+        <v>493.0843669551005</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082777</v>
+        <v>417.8199303082781</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979809</v>
+        <v>357.1274984979812</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.509367644372</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445333</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G16" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311671</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798494</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,22 +5437,22 @@
         <v>125.3967468362514</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757663</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791391</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469765</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5461,25 +5461,25 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852099</v>
+        <v>850.6627251852104</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553811</v>
+        <v>711.5230842553818</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592128</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5498,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5592,16 +5592,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N18" t="n">
         <v>1740.468202408463</v>
@@ -5671,28 +5671,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229927</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
         <v>1352.560722599516</v>
@@ -5735,34 +5735,34 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,31 +5771,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5835,10 +5835,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5902,7 +5902,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5917,19 +5917,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655142</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5981,25 +5981,25 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,22 +6008,22 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6154,43 +6154,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O25" t="n">
-        <v>967.282790386234</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162813</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
         <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424151</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958355</v>
+        <v>576.9969878838401</v>
       </c>
       <c r="L26" t="n">
-        <v>1286.389518343938</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388518</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605751</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6297,22 +6297,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>556.9309448458635</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>579.4156798503576</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746015</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225736</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904108</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351193</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
         <v>1380.047947122475</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,16 +6464,16 @@
         <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838402</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
         <v>2956.374511095034</v>
@@ -6482,7 +6482,7 @@
         <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6540,16 +6540,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1020.875654636458</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084636</v>
+        <v>1719.814764781097</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985471</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600043</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144914</v>
+        <v>890.2201666674334</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423735</v>
+        <v>590.527580547476</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282811</v>
+        <v>294.5666773855439</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267616</v>
+        <v>87.68547930209927</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304536</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918735</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193353</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1163.265517024654</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1817.756924709621</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2454.058715987469</v>
+        <v>2252.184354569789</v>
       </c>
       <c r="O32" t="n">
-        <v>2894.098316879797</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.285809011319</v>
+        <v>3065.032496333758</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152268</v>
+        <v>3249.878056474707</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152268</v>
+        <v>3327.510737231445</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491223</v>
+        <v>3278.19903452256</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448545</v>
+        <v>3171.900284432042</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281047</v>
+        <v>3033.349407216705</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.03089038247</v>
+        <v>2808.444450270289</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748662</v>
+        <v>2554.647267588641</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079623</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398129</v>
+        <v>2003.107658142429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230763</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831685</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046488</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986684</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711338</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304536</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027727</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649992</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633124</v>
+        <v>600.6073572313144</v>
       </c>
       <c r="M33" t="n">
-        <v>984.9628415633124</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.01916188853</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.239504859018</v>
+        <v>341.6872565554784</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229116</v>
+        <v>288.6839909715324</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233307</v>
+        <v>250.252730224112</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804376</v>
+        <v>211.8957704333793</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913149</v>
+        <v>171.7716879964171</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886648</v>
+        <v>120.7194864459274</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806311</v>
+        <v>82.4427877574862</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304536</v>
+        <v>66.5502147446289</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304536</v>
+        <v>151.64600763549</v>
       </c>
       <c r="K34" t="n">
-        <v>150.3776684929872</v>
+        <v>233.4810487454318</v>
       </c>
       <c r="L34" t="n">
-        <v>314.505308366787</v>
+        <v>397.6086886192316</v>
       </c>
       <c r="M34" t="n">
-        <v>529.4300376111994</v>
+        <v>627.5238173231628</v>
       </c>
       <c r="N34" t="n">
-        <v>821.1101792827947</v>
+        <v>810.7134513543721</v>
       </c>
       <c r="O34" t="n">
-        <v>1092.305453964889</v>
+        <v>1088.287753884379</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381853</v>
+        <v>1323.033455149256</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.58483139229</v>
+        <v>1326.455651519307</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422772</v>
+        <v>1319.756514501948</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003226</v>
+        <v>1234.142283034563</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569364</v>
+        <v>1115.625083552861</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209169</v>
+        <v>947.3881441448273</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914278978</v>
+        <v>798.6106513157163</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569798</v>
+        <v>632.4821015969587</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378672</v>
+        <v>515.6036317300067</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.754219152415</v>
+        <v>409.6934228967149</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,7 +6959,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
         <v>3071.119566829236</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7087,34 +7087,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229905</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222409</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960407</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343048</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>683.142663665514</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072221</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>965.7235964838006</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7163,7 +7163,7 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7196,7 +7196,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
         <v>3071.119566829236</v>
@@ -7211,7 +7211,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7251,19 +7251,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M39" t="n">
-        <v>1606.310991511064</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N39" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7333,19 +7333,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222411</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1627.066081816728</v>
+        <v>1340.175609875977</v>
       </c>
       <c r="C41" t="n">
-        <v>1331.331832309792</v>
+        <v>1044.441360369041</v>
       </c>
       <c r="D41" t="n">
-        <v>1043.331955516593</v>
+        <v>756.441483575842</v>
       </c>
       <c r="E41" t="n">
-        <v>738.1896826232703</v>
+        <v>649.1099775447819</v>
       </c>
       <c r="F41" t="n">
-        <v>418.7364961433814</v>
+        <v>329.6567910648931</v>
       </c>
       <c r="G41" t="n">
-        <v>103.0149926215175</v>
+        <v>329.6567910648931</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0149926215175</v>
+        <v>103.0149926215173</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7439,22 +7439,22 @@
         <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>2953.049646320914</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2794.738168745646</v>
+        <v>2752.513254111243</v>
       </c>
       <c r="V41" t="n">
-        <v>2794.738168745646</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2521.180385704067</v>
+        <v>2234.289913763315</v>
       </c>
       <c r="X41" t="n">
-        <v>2229.169032627257</v>
+        <v>1942.278560686505</v>
       </c>
       <c r="Y41" t="n">
-        <v>1930.119575537992</v>
+        <v>1643.22910359724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.580372034486</v>
+        <v>475.5803720344845</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906085</v>
+        <v>402.8165060906072</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832565</v>
+        <v>344.6246449832553</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325913</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356977</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252772</v>
+        <v>155.8096001252767</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7723010769044</v>
+        <v>97.77230107690418</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822076</v>
+        <v>127.8475561822079</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676791</v>
+        <v>305.1847683676795</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170083</v>
+        <v>564.814579317009</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160337</v>
+        <v>786.9927227160293</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822772</v>
+        <v>1065.684527822768</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.89146594001</v>
+        <v>1323.891465940006</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792118</v>
+        <v>1539.269802792114</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.194170237699</v>
+        <v>1638.194170237695</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.734432860406</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033092</v>
+        <v>1506.359601033088</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.081801191459</v>
+        <v>1368.081801191456</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.08426142349</v>
       </c>
       <c r="V43" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234448</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557611</v>
+        <v>825.657018155759</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288774</v>
+        <v>689.0179479288756</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356541</v>
+        <v>563.3471387356524</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1498.487087451243</v>
+        <v>1409.247912944792</v>
       </c>
       <c r="C44" t="n">
-        <v>1202.752837944307</v>
+        <v>1113.513663437857</v>
       </c>
       <c r="D44" t="n">
-        <v>914.7529611511083</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>914.7529611511083</v>
+        <v>697.2938177058676</v>
       </c>
       <c r="F44" t="n">
-        <v>595.2997746712192</v>
+        <v>377.8406312259789</v>
       </c>
       <c r="G44" t="n">
-        <v>279.5782711493557</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0149926215175</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3036.88408213696</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2910.82473168651</v>
+        <v>2979.897034755326</v>
       </c>
       <c r="U44" t="n">
-        <v>2910.82473168651</v>
+        <v>2821.585557180058</v>
       </c>
       <c r="V44" t="n">
-        <v>2666.159174380162</v>
+        <v>2576.91999987371</v>
       </c>
       <c r="W44" t="n">
-        <v>2392.601391338583</v>
+        <v>2303.362216832131</v>
       </c>
       <c r="X44" t="n">
-        <v>2100.590038261773</v>
+        <v>2011.350863755321</v>
       </c>
       <c r="Y44" t="n">
-        <v>1801.540581172507</v>
+        <v>1712.301406666056</v>
       </c>
     </row>
     <row r="45">
@@ -7725,16 +7725,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344859</v>
+        <v>475.5803720344843</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906084</v>
+        <v>402.816506090607</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832564</v>
+        <v>344.6246449832552</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325912</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356977</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252771</v>
+        <v>155.8096001252767</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690438</v>
+        <v>97.77230107690416</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822077</v>
+        <v>127.8475561822079</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676791</v>
+        <v>305.1847683676796</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170086</v>
+        <v>564.8145793170092</v>
       </c>
       <c r="M46" t="n">
-        <v>846.6083287308022</v>
+        <v>786.9927227160281</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822767</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.507071954779</v>
+        <v>1323.891465940005</v>
       </c>
       <c r="P46" t="n">
-        <v>1598.885408806887</v>
+        <v>1539.269802792114</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.194170237698</v>
+        <v>1638.194170237694</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.734432860405</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033091</v>
+        <v>1506.359601033088</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.081801191458</v>
+        <v>1368.081801191455</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.08426142349</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.54616823445</v>
+        <v>1011.546168234448</v>
       </c>
       <c r="W46" t="n">
-        <v>825.657018155761</v>
+        <v>825.6570181557587</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288773</v>
+        <v>689.0179479288753</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.347138735654</v>
+        <v>563.3471387356522</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>216.5843692742441</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,16 +7985,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107109</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>527.3258833814963</v>
+        <v>655.3475650705623</v>
       </c>
       <c r="O2" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8058,22 +8058,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>590.0490585853455</v>
+        <v>598.61619578209</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>591.6011865869448</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>239.6472470098787</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8225,13 +8225,13 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>613.9756697486937</v>
+        <v>655.3475650705623</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>156.4260707336245</v>
       </c>
       <c r="Q5" t="n">
         <v>331.2113854294513</v>
@@ -8298,19 +8298,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>623.5213537622956</v>
+        <v>598.61619578209</v>
       </c>
       <c r="N6" t="n">
-        <v>324.157753629441</v>
+        <v>344.6891717056471</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216671</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8453,10 +8453,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>363.2059172909298</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>318.4970894367924</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,13 +8529,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>279.5693555729968</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
@@ -8547,10 +8547,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>324.2399822288082</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,25 +8769,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>234.783646787533</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8933,7 +8933,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M14" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N14" t="n">
         <v>682.2612020826953</v>
@@ -9006,25 +9006,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>236.1748646101141</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,10 +9249,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680207</v>
       </c>
       <c r="N18" t="n">
-        <v>335.1420048916687</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>92.68755888888889</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9483,13 +9483,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,10 +9714,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>105.1563108732267</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9726,7 +9726,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>115.098975589205</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>301.854937525337</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10428,16 +10428,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>515.2544481366739</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118433</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.2265410010273</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,13 +10908,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>220.8844470939643</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>405.2384673331027</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>123.0036286693758</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>275.7170059000187</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.96247126414339</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>200.0694275749103</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.79510563304797</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -25634,16 +25634,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>195.8326591936397</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>312.5642884866447</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25679,13 +25679,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>41.80266548806013</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332849</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25868,10 +25868,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>175.1530809149865</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643889</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>49.57773471638245</v>
+        <v>224.3753804589424</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>40.48690626822767</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812779</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>735449.491918919</v>
+        <v>734547.1704982786</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>735449.491918919</v>
+        <v>734547.1704982786</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>699669.7574410993</v>
+        <v>699669.7574410992</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>699669.7574410994</v>
+        <v>699669.7574410992</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>702551.6864310943</v>
+        <v>702551.6864310945</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>702551.6864310943</v>
+        <v>702551.6864310945</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>559029.7520894057</v>
+      </c>
+      <c r="C2" t="n">
+        <v>559029.7520894055</v>
+      </c>
+      <c r="D2" t="n">
         <v>559029.7520894059</v>
       </c>
-      <c r="C2" t="n">
-        <v>559029.7520894059</v>
-      </c>
-      <c r="D2" t="n">
-        <v>559029.752089406</v>
-      </c>
       <c r="E2" t="n">
+        <v>525375.9803180383</v>
+      </c>
+      <c r="F2" t="n">
         <v>525375.9803180384</v>
       </c>
-      <c r="F2" t="n">
-        <v>525375.9803180383</v>
-      </c>
       <c r="G2" t="n">
-        <v>559029.7520894062</v>
+        <v>559029.7520894064</v>
       </c>
       <c r="H2" t="n">
-        <v>559029.7520894064</v>
+        <v>559029.7520894065</v>
       </c>
       <c r="I2" t="n">
-        <v>559029.7520894064</v>
+        <v>559029.7520894066</v>
       </c>
       <c r="J2" t="n">
+        <v>559029.7520894071</v>
+      </c>
+      <c r="K2" t="n">
         <v>559029.7520894069</v>
       </c>
-      <c r="K2" t="n">
-        <v>559029.7520894068</v>
-      </c>
       <c r="L2" t="n">
-        <v>559029.752089406</v>
+        <v>559029.7520894057</v>
       </c>
       <c r="M2" t="n">
-        <v>559029.7520894062</v>
+        <v>559029.7520894065</v>
       </c>
       <c r="N2" t="n">
         <v>559029.7520894064</v>
       </c>
       <c r="O2" t="n">
-        <v>527666.7443870093</v>
+        <v>527666.7443870092</v>
       </c>
       <c r="P2" t="n">
-        <v>527666.7443870093</v>
+        <v>527666.7443870092</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343502</v>
+        <v>169649.0058765498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.122386027</v>
+        <v>26460.41160941825</v>
       </c>
       <c r="E3" t="n">
-        <v>130452.9311377122</v>
+        <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301433</v>
+        <v>29094.95587301435</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469662</v>
+        <v>215329.5897923932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670142</v>
+        <v>46725.80335481251</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436852</v>
+        <v>43782.97194555665</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015689</v>
+        <v>18983.55983015701</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202745.5458432096</v>
+        <v>208555.3986987921</v>
       </c>
       <c r="C4" t="n">
-        <v>202745.5458432096</v>
+        <v>208555.3986987921</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
       </c>
       <c r="E4" t="n">
-        <v>135951.9703483081</v>
+        <v>135951.970348308</v>
       </c>
       <c r="F4" t="n">
-        <v>135951.9703483081</v>
+        <v>135951.970348308</v>
       </c>
       <c r="G4" t="n">
         <v>160556.29099179</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>160983.928801512</v>
+        <v>160850.5341924572</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26454,10 +26454,10 @@
         <v>160556.29099179</v>
       </c>
       <c r="O4" t="n">
-        <v>137626.5862472994</v>
+        <v>137626.5862472996</v>
       </c>
       <c r="P4" t="n">
-        <v>137626.5862472994</v>
+        <v>137626.5862472996</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.5612881494</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.5612881494</v>
+        <v>64406.32768295291</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,31 +26485,31 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
+        <v>58169.76931551966</v>
+      </c>
+      <c r="I5" t="n">
         <v>58169.76931551967</v>
       </c>
-      <c r="I5" t="n">
-        <v>58169.76931551966</v>
-      </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446762</v>
+        <v>60332.67530588339</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255072</v>
+        <v>55320.40778255074</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255073</v>
+        <v>55320.40778255074</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112368.3478236967</v>
+        <v>116419.0198311109</v>
       </c>
       <c r="C6" t="n">
-        <v>290363.6449580469</v>
+        <v>286068.0257076605</v>
       </c>
       <c r="D6" t="n">
-        <v>282036.1996151699</v>
+        <v>274299.9103917786</v>
       </c>
       <c r="E6" t="n">
-        <v>203858.789323109</v>
+        <v>203750.2287690078</v>
       </c>
       <c r="F6" t="n">
-        <v>334311.7204608211</v>
+        <v>334203.15990672</v>
       </c>
       <c r="G6" t="n">
         <v>311208.7359090823</v>
       </c>
       <c r="H6" t="n">
-        <v>340303.6917820967</v>
+        <v>340303.6917820968</v>
       </c>
       <c r="I6" t="n">
-        <v>340303.6917820968</v>
+        <v>340303.6917820969</v>
       </c>
       <c r="J6" t="n">
-        <v>112218.048432348</v>
+        <v>118734.3335869212</v>
       </c>
       <c r="K6" t="n">
-        <v>334063.9233793142</v>
+        <v>334063.9233793143</v>
       </c>
       <c r="L6" t="n">
-        <v>295169.576446725</v>
+        <v>291120.7392362525</v>
       </c>
       <c r="M6" t="n">
-        <v>297572.414847728</v>
+        <v>296520.7198365402</v>
       </c>
       <c r="N6" t="n">
         <v>340303.6917820967</v>
       </c>
       <c r="O6" t="n">
-        <v>315736.1905270022</v>
+        <v>315635.0195344135</v>
       </c>
       <c r="P6" t="n">
-        <v>334719.7503571591</v>
+        <v>334618.5793645704</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129837</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129837</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,22 +26805,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="I4" t="n">
         <v>776.4890963014442</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>917.060736844378</v>
+      </c>
+      <c r="K4" t="n">
+        <v>917.0607368443782</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.8776843078613</v>
+      </c>
+      <c r="M4" t="n">
         <v>776.4890963014441</v>
-      </c>
-      <c r="J4" t="n">
-        <v>917.0607368443782</v>
-      </c>
-      <c r="K4" t="n">
-        <v>917.0607368443783</v>
-      </c>
-      <c r="L4" t="n">
-        <v>856.7828422880669</v>
-      </c>
-      <c r="M4" t="n">
-        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126791</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304859</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087677</v>
+        <v>58.40725419351564</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165906</v>
+        <v>14.33013548902022</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769611</v>
+        <v>23.72944978769627</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129837</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631137</v>
+        <v>85.18305253651693</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559178</v>
+        <v>646.8007142757119</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.783224045526</v>
+        <v>129.6883820257318</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126791</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304859</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129837</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631137</v>
+        <v>85.18305253651693</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,7 +27379,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>319.8304888249012</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27388,16 +27388,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>127.1694177129035</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>97.61862951051984</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>31.15233105165356</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>81.521106990093</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>100.4445175928075</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27597,7 +27597,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>95.33366558028268</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>322.7231800111285</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27664,7 +27664,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27673,16 +27673,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>76.66721019408617</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>110.2637886710704</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>193.6465134776317</v>
       </c>
       <c r="U7" t="n">
-        <v>249.8832518478618</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>301.6467618732978</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>229.465722175</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>149.2534355460791</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28059,13 +28059,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28074,7 +28074,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>221.8028119678381</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28989,22 +28989,22 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29059,7 +29059,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29226,13 +29226,13 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>128.2979821082783</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901209</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431647</v>
+        <v>30.27223765901132</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29536,7 +29536,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
@@ -29548,16 +29548,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>86.65052755599578</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>98.75804948160612</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>109.5863713539253</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>24.86974620214016</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>28.9223746526751</v>
+        <v>44.0641922885527</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539253</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="P34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539253</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668787</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30177,7 +30177,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30405,7 +30405,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P40" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="C41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="D41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="E41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="F41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="G41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="H41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="I41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="T41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="U41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="V41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="W41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="X41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="C43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="D43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="E43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="F43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="G43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="H43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="I43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="J43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="K43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="L43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="M43" t="n">
-        <v>36.2490556169306</v>
+        <v>36.24905561692555</v>
       </c>
       <c r="N43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="O43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="P43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="R43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="S43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="T43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="U43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="V43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="W43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="X43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.4668394702319</v>
+        <v>96.46683947023212</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023192</v>
+        <v>36.24905561692404</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.24905561692961</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023215</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>98.90453133189799</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,16 +34705,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129837</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>378.2073920437122</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34778,22 +34778,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>497.6619365360336</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>152.563882190564</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34945,13 +34945,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>464.8571784109096</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>6.124623492699338</v>
       </c>
       <c r="Q5" t="n">
         <v>186.7126870110591</v>
@@ -35018,19 +35018,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>531.1342317129837</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="N6" t="n">
-        <v>238.7856407752743</v>
+        <v>259.3170588514805</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327781</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>209.9577475604382</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>168.1956421958672</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>189.5090087160786</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.2518290728942</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>145.1867114541996</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215736</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446891</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M14" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N14" t="n">
         <v>533.1427107449111</v>
@@ -35726,25 +35726,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>145.1867114542002</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,10 +35969,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="N18" t="n">
-        <v>249.769892037502</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36051,7 +36051,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36203,13 +36203,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36285,13 +36285,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36446,7 +36446,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36522,13 +36522,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610698</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>292.6462316453571</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.69798984183555</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907917</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
@@ -36613,10 +36613,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700705</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576761</v>
+        <v>22.71185353989308</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36844,16 +36844,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>273.3632145670549</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>216.4828246711704</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>597.0613744498171</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>661.1024320050168</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>642.7290820988364</v>
+        <v>649.1725445714753</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>376.5742837087279</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>78.41684924923088</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576767</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>85.95534635440509</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>217.0956861054671</v>
+        <v>232.2375037413447</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288841</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910042</v>
+        <v>280.378083363643</v>
       </c>
       <c r="P34" t="n">
-        <v>230.6734074918835</v>
+        <v>237.1168699645223</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640778</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>113.782083667694</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634528801</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37473,7 +37473,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832366</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,13 +37628,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>135.5123342397976</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133901</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37716,7 +37716,7 @@
         <v>294.7082188526632</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37795,7 +37795,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>312.5509084442139</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807283</v>
+        <v>66.39235199807305</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570421</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922519</v>
+        <v>262.2523342922521</v>
       </c>
       <c r="M43" t="n">
-        <v>224.4223670697226</v>
+        <v>224.4223670697175</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451907</v>
+        <v>281.5068738451909</v>
       </c>
       <c r="O43" t="n">
-        <v>260.8150890073107</v>
+        <v>260.815089007311</v>
       </c>
       <c r="P43" t="n">
-        <v>217.5538756081901</v>
+        <v>217.5538756081903</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038439</v>
+        <v>99.9236034803846</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807285</v>
+        <v>66.39235199807308</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570419</v>
+        <v>179.1284971570421</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922519</v>
+        <v>262.2523342922522</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230238</v>
+        <v>224.422367069716</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>281.506873845191</v>
       </c>
       <c r="O46" t="n">
-        <v>260.8150890073108</v>
+        <v>260.815089007311</v>
       </c>
       <c r="P46" t="n">
-        <v>217.5538756081901</v>
+        <v>217.5538756081903</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.70581962708209</v>
+        <v>99.92360348038463</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
